--- a/inputFiles.xlsx
+++ b/inputFiles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregcusack/Desktop/UCLA/Fall 2016/CS218/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregcusack/Desktop/UCLA/Fall 2016/CS218/Project/blockChainSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -383,7 +383,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -392,21 +392,35 @@
         <v>180</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
